--- a/bin/input_output_Excel/OUTPUT_Mappe_Personen.xlsx
+++ b/bin/input_output_Excel/OUTPUT_Mappe_Personen.xlsx
@@ -1299,7 +1299,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="3">
@@ -1313,7 +1313,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>25.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="4">
@@ -1327,7 +1327,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="5">
@@ -1341,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>35.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="6">
@@ -1355,7 +1355,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>67.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="7">
@@ -1369,7 +1369,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>58.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="8">
@@ -1383,7 +1383,7 @@
         <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="9">
@@ -1397,7 +1397,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>29.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="10">
@@ -1411,7 +1411,7 @@
         <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="11">
@@ -1425,7 +1425,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>50.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="12">
@@ -1439,7 +1439,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>52.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="13">
@@ -1453,7 +1453,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>40.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="14">
@@ -1467,7 +1467,7 @@
         <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>47.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="15">
@@ -1481,7 +1481,7 @@
         <v>31</v>
       </c>
       <c r="D15" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="16">
@@ -1495,7 +1495,7 @@
         <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>47.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="17">
@@ -1509,7 +1509,7 @@
         <v>35</v>
       </c>
       <c r="D17" t="n">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="18">
@@ -1523,7 +1523,7 @@
         <v>37</v>
       </c>
       <c r="D18" t="n">
-        <v>62.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="19">
@@ -1537,7 +1537,7 @@
         <v>39</v>
       </c>
       <c r="D19" t="n">
-        <v>60.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="20">
@@ -1551,7 +1551,7 @@
         <v>41</v>
       </c>
       <c r="D20" t="n">
-        <v>55.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="21">
@@ -1565,7 +1565,7 @@
         <v>43</v>
       </c>
       <c r="D21" t="n">
-        <v>48.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="22">
@@ -1579,7 +1579,7 @@
         <v>45</v>
       </c>
       <c r="D22" t="n">
-        <v>27.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="23">
@@ -1593,7 +1593,7 @@
         <v>47</v>
       </c>
       <c r="D23" t="n">
-        <v>59.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="24">
@@ -1607,7 +1607,7 @@
         <v>49</v>
       </c>
       <c r="D24" t="n">
-        <v>24.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>51</v>
       </c>
       <c r="D25" t="n">
-        <v>62.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="26">
@@ -1635,7 +1635,7 @@
         <v>53</v>
       </c>
       <c r="D26" t="n">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="27">
@@ -1649,7 +1649,7 @@
         <v>55</v>
       </c>
       <c r="D27" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="28">
@@ -1663,7 +1663,7 @@
         <v>57</v>
       </c>
       <c r="D28" t="n">
-        <v>53.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="29">
@@ -1677,7 +1677,7 @@
         <v>59</v>
       </c>
       <c r="D29" t="n">
-        <v>65.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="30">
@@ -1691,7 +1691,7 @@
         <v>61</v>
       </c>
       <c r="D30" t="n">
-        <v>51.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="31">
@@ -1705,7 +1705,7 @@
         <v>63</v>
       </c>
       <c r="D31" t="n">
-        <v>44.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="32">
@@ -1719,7 +1719,7 @@
         <v>65</v>
       </c>
       <c r="D32" t="n">
-        <v>40.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="33">
@@ -1733,7 +1733,7 @@
         <v>67</v>
       </c>
       <c r="D33" t="n">
-        <v>33.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="34">
@@ -1747,7 +1747,7 @@
         <v>69</v>
       </c>
       <c r="D34" t="n">
-        <v>61.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="35">
@@ -1761,7 +1761,7 @@
         <v>71</v>
       </c>
       <c r="D35" t="n">
-        <v>62.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="36">
@@ -1775,7 +1775,7 @@
         <v>73</v>
       </c>
       <c r="D36" t="n">
-        <v>41.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="37">
@@ -1789,7 +1789,7 @@
         <v>75</v>
       </c>
       <c r="D37" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="38">
@@ -1803,7 +1803,7 @@
         <v>77</v>
       </c>
       <c r="D38" t="n">
-        <v>31.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="39">
@@ -1817,7 +1817,7 @@
         <v>79</v>
       </c>
       <c r="D39" t="n">
-        <v>37.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="40">
@@ -1831,7 +1831,7 @@
         <v>81</v>
       </c>
       <c r="D40" t="n">
-        <v>26.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="41">
@@ -1845,7 +1845,7 @@
         <v>83</v>
       </c>
       <c r="D41" t="n">
-        <v>48.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="42">
@@ -1859,7 +1859,7 @@
         <v>85</v>
       </c>
       <c r="D42" t="n">
-        <v>19.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="43">
@@ -1873,7 +1873,7 @@
         <v>87</v>
       </c>
       <c r="D43" t="n">
-        <v>30.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="44">
@@ -1887,7 +1887,7 @@
         <v>89</v>
       </c>
       <c r="D44" t="n">
-        <v>39.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="45">
@@ -1901,7 +1901,7 @@
         <v>91</v>
       </c>
       <c r="D45" t="n">
-        <v>26.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="46">
@@ -1915,7 +1915,7 @@
         <v>93</v>
       </c>
       <c r="D46" t="n">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="47">
@@ -1929,7 +1929,7 @@
         <v>95</v>
       </c>
       <c r="D47" t="n">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="48">
@@ -1943,7 +1943,7 @@
         <v>97</v>
       </c>
       <c r="D48" t="n">
-        <v>60.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="49">
@@ -1957,7 +1957,7 @@
         <v>99</v>
       </c>
       <c r="D49" t="n">
-        <v>63.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="50">
@@ -1971,7 +1971,7 @@
         <v>101</v>
       </c>
       <c r="D50" t="n">
-        <v>20.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="51">
@@ -1985,7 +1985,7 @@
         <v>103</v>
       </c>
       <c r="D51" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="52">
@@ -1999,7 +1999,7 @@
         <v>105</v>
       </c>
       <c r="D52" t="n">
-        <v>46.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="53">
@@ -2013,7 +2013,7 @@
         <v>107</v>
       </c>
       <c r="D53" t="n">
-        <v>44.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="54">
@@ -2027,7 +2027,7 @@
         <v>109</v>
       </c>
       <c r="D54" t="n">
-        <v>60.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="55">
@@ -2041,7 +2041,7 @@
         <v>111</v>
       </c>
       <c r="D55" t="n">
-        <v>21.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="56">
@@ -2055,7 +2055,7 @@
         <v>113</v>
       </c>
       <c r="D56" t="n">
-        <v>44.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="57">
@@ -2069,7 +2069,7 @@
         <v>115</v>
       </c>
       <c r="D57" t="n">
-        <v>59.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="58">
@@ -2083,7 +2083,7 @@
         <v>117</v>
       </c>
       <c r="D58" t="n">
-        <v>25.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="59">
@@ -2097,7 +2097,7 @@
         <v>119</v>
       </c>
       <c r="D59" t="n">
-        <v>57.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="60">
@@ -2111,7 +2111,7 @@
         <v>121</v>
       </c>
       <c r="D60" t="n">
-        <v>24.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="61">
@@ -2125,7 +2125,7 @@
         <v>123</v>
       </c>
       <c r="D61" t="n">
-        <v>67.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="62">
@@ -2139,7 +2139,7 @@
         <v>125</v>
       </c>
       <c r="D62" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="63">
@@ -2153,7 +2153,7 @@
         <v>127</v>
       </c>
       <c r="D63" t="n">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="64">
@@ -2167,7 +2167,7 @@
         <v>129</v>
       </c>
       <c r="D64" t="n">
-        <v>43.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="65">
@@ -2181,7 +2181,7 @@
         <v>131</v>
       </c>
       <c r="D65" t="n">
-        <v>28.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="66">
@@ -2195,7 +2195,7 @@
         <v>133</v>
       </c>
       <c r="D66" t="n">
-        <v>31.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="67">
@@ -2209,7 +2209,7 @@
         <v>135</v>
       </c>
       <c r="D67" t="n">
-        <v>58.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="68">
@@ -2223,7 +2223,7 @@
         <v>137</v>
       </c>
       <c r="D68" t="n">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="69">
@@ -2237,7 +2237,7 @@
         <v>139</v>
       </c>
       <c r="D69" t="n">
-        <v>27.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="70">
@@ -2251,7 +2251,7 @@
         <v>141</v>
       </c>
       <c r="D70" t="n">
-        <v>29.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="71">
@@ -2265,7 +2265,7 @@
         <v>143</v>
       </c>
       <c r="D71" t="n">
-        <v>50.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="72">
@@ -2279,7 +2279,7 @@
         <v>145</v>
       </c>
       <c r="D72" t="n">
-        <v>44.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="73">
@@ -2293,7 +2293,7 @@
         <v>147</v>
       </c>
       <c r="D73" t="n">
-        <v>27.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="74">
@@ -2307,7 +2307,7 @@
         <v>149</v>
       </c>
       <c r="D74" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="75">
@@ -2321,7 +2321,7 @@
         <v>151</v>
       </c>
       <c r="D75" t="n">
-        <v>31.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="76">
@@ -2335,7 +2335,7 @@
         <v>153</v>
       </c>
       <c r="D76" t="n">
-        <v>41.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="77">
@@ -2349,7 +2349,7 @@
         <v>155</v>
       </c>
       <c r="D77" t="n">
-        <v>63.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="78">
@@ -2363,7 +2363,7 @@
         <v>157</v>
       </c>
       <c r="D78" t="n">
-        <v>33.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="79">
@@ -2377,7 +2377,7 @@
         <v>159</v>
       </c>
       <c r="D79" t="n">
-        <v>56.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="80">
@@ -2391,7 +2391,7 @@
         <v>161</v>
       </c>
       <c r="D80" t="n">
-        <v>51.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="81">
@@ -2405,7 +2405,7 @@
         <v>163</v>
       </c>
       <c r="D81" t="n">
-        <v>25.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="82">
@@ -2419,7 +2419,7 @@
         <v>165</v>
       </c>
       <c r="D82" t="n">
-        <v>21.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="83">
@@ -2433,7 +2433,7 @@
         <v>167</v>
       </c>
       <c r="D83" t="n">
-        <v>30.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="84">
@@ -2447,7 +2447,7 @@
         <v>169</v>
       </c>
       <c r="D84" t="n">
-        <v>55.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="85">
@@ -2461,7 +2461,7 @@
         <v>171</v>
       </c>
       <c r="D85" t="n">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="86">
@@ -2475,7 +2475,7 @@
         <v>173</v>
       </c>
       <c r="D86" t="n">
-        <v>59.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="87">
@@ -2489,7 +2489,7 @@
         <v>175</v>
       </c>
       <c r="D87" t="n">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="88">
@@ -2503,7 +2503,7 @@
         <v>177</v>
       </c>
       <c r="D88" t="n">
-        <v>34.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="89">
@@ -2517,7 +2517,7 @@
         <v>179</v>
       </c>
       <c r="D89" t="n">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="90">
@@ -2531,7 +2531,7 @@
         <v>181</v>
       </c>
       <c r="D90" t="n">
-        <v>32.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="91">
@@ -2545,7 +2545,7 @@
         <v>183</v>
       </c>
       <c r="D91" t="n">
-        <v>60.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="92">
@@ -2559,7 +2559,7 @@
         <v>185</v>
       </c>
       <c r="D92" t="n">
-        <v>52.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="93">
@@ -2573,7 +2573,7 @@
         <v>187</v>
       </c>
       <c r="D93" t="n">
-        <v>30.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="94">
@@ -2587,7 +2587,7 @@
         <v>189</v>
       </c>
       <c r="D94" t="n">
-        <v>53.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="95">
@@ -2601,7 +2601,7 @@
         <v>191</v>
       </c>
       <c r="D95" t="n">
-        <v>67.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="96">
@@ -2615,7 +2615,7 @@
         <v>193</v>
       </c>
       <c r="D96" t="n">
-        <v>63.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="97">
@@ -2629,7 +2629,7 @@
         <v>195</v>
       </c>
       <c r="D97" t="n">
-        <v>58.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="98">
@@ -2643,7 +2643,7 @@
         <v>197</v>
       </c>
       <c r="D98" t="n">
-        <v>27.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="99">
@@ -2657,7 +2657,7 @@
         <v>199</v>
       </c>
       <c r="D99" t="n">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="100">
@@ -2671,7 +2671,7 @@
         <v>201</v>
       </c>
       <c r="D100" t="n">
-        <v>41.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="101">
@@ -2685,7 +2685,7 @@
         <v>203</v>
       </c>
       <c r="D101" t="n">
-        <v>34.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="102">
@@ -2699,7 +2699,7 @@
         <v>205</v>
       </c>
       <c r="D102" t="n">
-        <v>42.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="103">
@@ -2713,7 +2713,7 @@
         <v>207</v>
       </c>
       <c r="D103" t="n">
-        <v>46.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="104">
@@ -2727,7 +2727,7 @@
         <v>209</v>
       </c>
       <c r="D104" t="n">
-        <v>39.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="105">
@@ -2741,7 +2741,7 @@
         <v>211</v>
       </c>
       <c r="D105" t="n">
-        <v>54.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="106">
@@ -2755,7 +2755,7 @@
         <v>213</v>
       </c>
       <c r="D106" t="n">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="107">
@@ -2769,7 +2769,7 @@
         <v>215</v>
       </c>
       <c r="D107" t="n">
-        <v>33.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="108">
@@ -2783,7 +2783,7 @@
         <v>217</v>
       </c>
       <c r="D108" t="n">
-        <v>52.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="109">
@@ -2797,7 +2797,7 @@
         <v>219</v>
       </c>
       <c r="D109" t="n">
-        <v>27.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="110">
@@ -2811,7 +2811,7 @@
         <v>221</v>
       </c>
       <c r="D110" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="111">
@@ -2825,7 +2825,7 @@
         <v>223</v>
       </c>
       <c r="D111" t="n">
-        <v>27.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="112">
@@ -2839,7 +2839,7 @@
         <v>225</v>
       </c>
       <c r="D112" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="113">
@@ -2853,7 +2853,7 @@
         <v>227</v>
       </c>
       <c r="D113" t="n">
-        <v>40.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="114">
@@ -2867,7 +2867,7 @@
         <v>229</v>
       </c>
       <c r="D114" t="n">
-        <v>41.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="115">
@@ -2881,7 +2881,7 @@
         <v>231</v>
       </c>
       <c r="D115" t="n">
-        <v>44.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="116">
@@ -2895,7 +2895,7 @@
         <v>233</v>
       </c>
       <c r="D116" t="n">
-        <v>46.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="117">
@@ -2909,7 +2909,7 @@
         <v>235</v>
       </c>
       <c r="D117" t="n">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="118">
@@ -2923,7 +2923,7 @@
         <v>237</v>
       </c>
       <c r="D118" t="n">
-        <v>43.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="119">
@@ -2937,7 +2937,7 @@
         <v>239</v>
       </c>
       <c r="D119" t="n">
-        <v>39.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="120">
@@ -2951,7 +2951,7 @@
         <v>241</v>
       </c>
       <c r="D120" t="n">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="121">
@@ -2965,7 +2965,7 @@
         <v>243</v>
       </c>
       <c r="D121" t="n">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="122">
@@ -2979,7 +2979,7 @@
         <v>245</v>
       </c>
       <c r="D122" t="n">
-        <v>28.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="123">
@@ -2993,7 +2993,7 @@
         <v>247</v>
       </c>
       <c r="D123" t="n">
-        <v>30.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="124">
@@ -3007,7 +3007,7 @@
         <v>249</v>
       </c>
       <c r="D124" t="n">
-        <v>51.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="125">
@@ -3035,7 +3035,7 @@
         <v>253</v>
       </c>
       <c r="D126" t="n">
-        <v>67.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="127">
@@ -3049,7 +3049,7 @@
         <v>255</v>
       </c>
       <c r="D127" t="n">
-        <v>56.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="128">
@@ -3063,7 +3063,7 @@
         <v>257</v>
       </c>
       <c r="D128" t="n">
-        <v>22.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="129">
@@ -3077,7 +3077,7 @@
         <v>259</v>
       </c>
       <c r="D129" t="n">
-        <v>21.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="130">
@@ -3091,7 +3091,7 @@
         <v>261</v>
       </c>
       <c r="D130" t="n">
-        <v>60.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="131">
@@ -3105,7 +3105,7 @@
         <v>263</v>
       </c>
       <c r="D131" t="n">
-        <v>22.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="132">
@@ -3119,7 +3119,7 @@
         <v>265</v>
       </c>
       <c r="D132" t="n">
-        <v>56.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="133">
@@ -3133,7 +3133,7 @@
         <v>267</v>
       </c>
       <c r="D133" t="n">
-        <v>33.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="134">
@@ -3147,7 +3147,7 @@
         <v>269</v>
       </c>
       <c r="D134" t="n">
-        <v>54.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="135">
@@ -3161,7 +3161,7 @@
         <v>271</v>
       </c>
       <c r="D135" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="136">
@@ -3175,7 +3175,7 @@
         <v>273</v>
       </c>
       <c r="D136" t="n">
-        <v>52.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="137">
@@ -3189,7 +3189,7 @@
         <v>275</v>
       </c>
       <c r="D137" t="n">
-        <v>27.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="138">
@@ -3203,7 +3203,7 @@
         <v>277</v>
       </c>
       <c r="D138" t="n">
-        <v>19.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="139">
@@ -3231,7 +3231,7 @@
         <v>281</v>
       </c>
       <c r="D140" t="n">
-        <v>66.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="141">
@@ -3245,7 +3245,7 @@
         <v>283</v>
       </c>
       <c r="D141" t="n">
-        <v>29.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="142">
@@ -3259,7 +3259,7 @@
         <v>285</v>
       </c>
       <c r="D142" t="n">
-        <v>52.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="143">
@@ -3273,7 +3273,7 @@
         <v>287</v>
       </c>
       <c r="D143" t="n">
-        <v>51.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="144">
@@ -3287,7 +3287,7 @@
         <v>289</v>
       </c>
       <c r="D144" t="n">
-        <v>44.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="145">
@@ -3301,7 +3301,7 @@
         <v>291</v>
       </c>
       <c r="D145" t="n">
-        <v>30.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="146">
@@ -3315,7 +3315,7 @@
         <v>293</v>
       </c>
       <c r="D146" t="n">
-        <v>27.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="147">
@@ -3329,7 +3329,7 @@
         <v>295</v>
       </c>
       <c r="D147" t="n">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="148">
@@ -3343,7 +3343,7 @@
         <v>297</v>
       </c>
       <c r="D148" t="n">
-        <v>48.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="149">
@@ -3357,7 +3357,7 @@
         <v>299</v>
       </c>
       <c r="D149" t="n">
-        <v>45.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="150">
@@ -3371,7 +3371,7 @@
         <v>301</v>
       </c>
       <c r="D150" t="n">
-        <v>22.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="151">
@@ -3385,7 +3385,7 @@
         <v>303</v>
       </c>
       <c r="D151" t="n">
-        <v>25.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="152">
@@ -3399,7 +3399,7 @@
         <v>305</v>
       </c>
       <c r="D152" t="n">
-        <v>48.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="153">
@@ -3413,7 +3413,7 @@
         <v>307</v>
       </c>
       <c r="D153" t="n">
-        <v>31.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="154">
@@ -3427,7 +3427,7 @@
         <v>309</v>
       </c>
       <c r="D154" t="n">
-        <v>38.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="155">
@@ -3441,7 +3441,7 @@
         <v>311</v>
       </c>
       <c r="D155" t="n">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="156">
@@ -3469,7 +3469,7 @@
         <v>315</v>
       </c>
       <c r="D157" t="n">
-        <v>61.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="158">
@@ -3483,7 +3483,7 @@
         <v>317</v>
       </c>
       <c r="D158" t="n">
-        <v>43.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="159">
@@ -3497,7 +3497,7 @@
         <v>319</v>
       </c>
       <c r="D159" t="n">
-        <v>43.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="160">
@@ -3525,7 +3525,7 @@
         <v>323</v>
       </c>
       <c r="D161" t="n">
-        <v>65.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="162">
@@ -3539,7 +3539,7 @@
         <v>325</v>
       </c>
       <c r="D162" t="n">
-        <v>66.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="163">
@@ -3553,7 +3553,7 @@
         <v>327</v>
       </c>
       <c r="D163" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="164">
@@ -3567,7 +3567,7 @@
         <v>329</v>
       </c>
       <c r="D164" t="n">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="165">
@@ -3581,7 +3581,7 @@
         <v>331</v>
       </c>
       <c r="D165" t="n">
-        <v>42.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="166">
@@ -3595,7 +3595,7 @@
         <v>333</v>
       </c>
       <c r="D166" t="n">
-        <v>47.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="167">
@@ -3609,7 +3609,7 @@
         <v>335</v>
       </c>
       <c r="D167" t="n">
-        <v>31.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="168">
@@ -3623,7 +3623,7 @@
         <v>337</v>
       </c>
       <c r="D168" t="n">
-        <v>56.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="169">
@@ -3637,7 +3637,7 @@
         <v>339</v>
       </c>
       <c r="D169" t="n">
-        <v>37.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="170">
@@ -3651,7 +3651,7 @@
         <v>341</v>
       </c>
       <c r="D170" t="n">
-        <v>65.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="171">
@@ -3665,7 +3665,7 @@
         <v>343</v>
       </c>
       <c r="D171" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="172">
@@ -3693,7 +3693,7 @@
         <v>347</v>
       </c>
       <c r="D173" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="174">
@@ -3707,7 +3707,7 @@
         <v>349</v>
       </c>
       <c r="D174" t="n">
-        <v>66.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="175">
@@ -3721,7 +3721,7 @@
         <v>351</v>
       </c>
       <c r="D175" t="n">
-        <v>24.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="176">
@@ -3735,7 +3735,7 @@
         <v>353</v>
       </c>
       <c r="D176" t="n">
-        <v>44.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="177">
@@ -3749,7 +3749,7 @@
         <v>355</v>
       </c>
       <c r="D177" t="n">
-        <v>47.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="178">
@@ -3763,7 +3763,7 @@
         <v>357</v>
       </c>
       <c r="D178" t="n">
-        <v>60.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="179">
@@ -3777,7 +3777,7 @@
         <v>359</v>
       </c>
       <c r="D179" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="180">
@@ -3791,7 +3791,7 @@
         <v>361</v>
       </c>
       <c r="D180" t="n">
-        <v>21.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="181">
@@ -3805,7 +3805,7 @@
         <v>363</v>
       </c>
       <c r="D181" t="n">
-        <v>38.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="182">
@@ -3819,7 +3819,7 @@
         <v>365</v>
       </c>
       <c r="D182" t="n">
-        <v>29.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="183">
@@ -3833,7 +3833,7 @@
         <v>367</v>
       </c>
       <c r="D183" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="184">
@@ -3847,7 +3847,7 @@
         <v>369</v>
       </c>
       <c r="D184" t="n">
-        <v>59.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="185">
@@ -3861,7 +3861,7 @@
         <v>371</v>
       </c>
       <c r="D185" t="n">
-        <v>60.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="186">
@@ -3875,7 +3875,7 @@
         <v>373</v>
       </c>
       <c r="D186" t="n">
-        <v>37.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="187">
@@ -3889,7 +3889,7 @@
         <v>375</v>
       </c>
       <c r="D187" t="n">
-        <v>29.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="188">
@@ -3903,7 +3903,7 @@
         <v>377</v>
       </c>
       <c r="D188" t="n">
-        <v>26.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="189">
@@ -3917,7 +3917,7 @@
         <v>379</v>
       </c>
       <c r="D189" t="n">
-        <v>25.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="190">
@@ -3931,7 +3931,7 @@
         <v>381</v>
       </c>
       <c r="D190" t="n">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="191">
@@ -3945,7 +3945,7 @@
         <v>383</v>
       </c>
       <c r="D191" t="n">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="192">
@@ -3959,7 +3959,7 @@
         <v>385</v>
       </c>
       <c r="D192" t="n">
-        <v>35.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="193">
@@ -3973,7 +3973,7 @@
         <v>387</v>
       </c>
       <c r="D193" t="n">
-        <v>44.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="194">
@@ -3987,7 +3987,7 @@
         <v>389</v>
       </c>
       <c r="D194" t="n">
-        <v>52.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="195">
@@ -4001,7 +4001,7 @@
         <v>391</v>
       </c>
       <c r="D195" t="n">
-        <v>63.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="196">
@@ -4015,7 +4015,7 @@
         <v>393</v>
       </c>
       <c r="D196" t="n">
-        <v>19.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="197">
@@ -4029,7 +4029,7 @@
         <v>395</v>
       </c>
       <c r="D197" t="n">
-        <v>23.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="198">
@@ -4043,7 +4043,7 @@
         <v>397</v>
       </c>
       <c r="D198" t="n">
-        <v>39.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="199">
@@ -4057,7 +4057,7 @@
         <v>399</v>
       </c>
       <c r="D199" t="n">
-        <v>52.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="200">
@@ -4071,7 +4071,7 @@
         <v>401</v>
       </c>
       <c r="D200" t="n">
-        <v>56.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="201">
@@ -4085,7 +4085,7 @@
         <v>403</v>
       </c>
       <c r="D201" t="n">
-        <v>24.0</v>
+        <v>32.0</v>
       </c>
     </row>
   </sheetData>

--- a/bin/input_output_Excel/OUTPUT_Mappe_Personen.xlsx
+++ b/bin/input_output_Excel/OUTPUT_Mappe_Personen.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="604">
   <si>
     <t>id</t>
   </si>
@@ -1224,6 +1224,606 @@
   </si>
   <si>
     <t>Nachname199</t>
+  </si>
+  <si>
+    <t>Vorname200</t>
+  </si>
+  <si>
+    <t>Nachname200</t>
+  </si>
+  <si>
+    <t>Vorname201</t>
+  </si>
+  <si>
+    <t>Nachname201</t>
+  </si>
+  <si>
+    <t>Vorname202</t>
+  </si>
+  <si>
+    <t>Nachname202</t>
+  </si>
+  <si>
+    <t>Vorname203</t>
+  </si>
+  <si>
+    <t>Nachname203</t>
+  </si>
+  <si>
+    <t>Vorname204</t>
+  </si>
+  <si>
+    <t>Nachname204</t>
+  </si>
+  <si>
+    <t>Vorname205</t>
+  </si>
+  <si>
+    <t>Nachname205</t>
+  </si>
+  <si>
+    <t>Vorname206</t>
+  </si>
+  <si>
+    <t>Nachname206</t>
+  </si>
+  <si>
+    <t>Vorname207</t>
+  </si>
+  <si>
+    <t>Nachname207</t>
+  </si>
+  <si>
+    <t>Vorname208</t>
+  </si>
+  <si>
+    <t>Nachname208</t>
+  </si>
+  <si>
+    <t>Vorname209</t>
+  </si>
+  <si>
+    <t>Nachname209</t>
+  </si>
+  <si>
+    <t>Vorname210</t>
+  </si>
+  <si>
+    <t>Nachname210</t>
+  </si>
+  <si>
+    <t>Vorname211</t>
+  </si>
+  <si>
+    <t>Nachname211</t>
+  </si>
+  <si>
+    <t>Vorname212</t>
+  </si>
+  <si>
+    <t>Nachname212</t>
+  </si>
+  <si>
+    <t>Vorname213</t>
+  </si>
+  <si>
+    <t>Nachname213</t>
+  </si>
+  <si>
+    <t>Vorname214</t>
+  </si>
+  <si>
+    <t>Nachname214</t>
+  </si>
+  <si>
+    <t>Vorname215</t>
+  </si>
+  <si>
+    <t>Nachname215</t>
+  </si>
+  <si>
+    <t>Vorname216</t>
+  </si>
+  <si>
+    <t>Nachname216</t>
+  </si>
+  <si>
+    <t>Vorname217</t>
+  </si>
+  <si>
+    <t>Nachname217</t>
+  </si>
+  <si>
+    <t>Vorname218</t>
+  </si>
+  <si>
+    <t>Nachname218</t>
+  </si>
+  <si>
+    <t>Vorname219</t>
+  </si>
+  <si>
+    <t>Nachname219</t>
+  </si>
+  <si>
+    <t>Vorname220</t>
+  </si>
+  <si>
+    <t>Nachname220</t>
+  </si>
+  <si>
+    <t>Vorname221</t>
+  </si>
+  <si>
+    <t>Nachname221</t>
+  </si>
+  <si>
+    <t>Vorname222</t>
+  </si>
+  <si>
+    <t>Nachname222</t>
+  </si>
+  <si>
+    <t>Vorname223</t>
+  </si>
+  <si>
+    <t>Nachname223</t>
+  </si>
+  <si>
+    <t>Vorname224</t>
+  </si>
+  <si>
+    <t>Nachname224</t>
+  </si>
+  <si>
+    <t>Vorname225</t>
+  </si>
+  <si>
+    <t>Nachname225</t>
+  </si>
+  <si>
+    <t>Vorname226</t>
+  </si>
+  <si>
+    <t>Nachname226</t>
+  </si>
+  <si>
+    <t>Vorname227</t>
+  </si>
+  <si>
+    <t>Nachname227</t>
+  </si>
+  <si>
+    <t>Vorname228</t>
+  </si>
+  <si>
+    <t>Nachname228</t>
+  </si>
+  <si>
+    <t>Vorname229</t>
+  </si>
+  <si>
+    <t>Nachname229</t>
+  </si>
+  <si>
+    <t>Vorname230</t>
+  </si>
+  <si>
+    <t>Nachname230</t>
+  </si>
+  <si>
+    <t>Vorname231</t>
+  </si>
+  <si>
+    <t>Nachname231</t>
+  </si>
+  <si>
+    <t>Vorname232</t>
+  </si>
+  <si>
+    <t>Nachname232</t>
+  </si>
+  <si>
+    <t>Vorname233</t>
+  </si>
+  <si>
+    <t>Nachname233</t>
+  </si>
+  <si>
+    <t>Vorname234</t>
+  </si>
+  <si>
+    <t>Nachname234</t>
+  </si>
+  <si>
+    <t>Vorname235</t>
+  </si>
+  <si>
+    <t>Nachname235</t>
+  </si>
+  <si>
+    <t>Vorname236</t>
+  </si>
+  <si>
+    <t>Nachname236</t>
+  </si>
+  <si>
+    <t>Vorname237</t>
+  </si>
+  <si>
+    <t>Nachname237</t>
+  </si>
+  <si>
+    <t>Vorname238</t>
+  </si>
+  <si>
+    <t>Nachname238</t>
+  </si>
+  <si>
+    <t>Vorname239</t>
+  </si>
+  <si>
+    <t>Nachname239</t>
+  </si>
+  <si>
+    <t>Vorname240</t>
+  </si>
+  <si>
+    <t>Nachname240</t>
+  </si>
+  <si>
+    <t>Vorname241</t>
+  </si>
+  <si>
+    <t>Nachname241</t>
+  </si>
+  <si>
+    <t>Vorname242</t>
+  </si>
+  <si>
+    <t>Nachname242</t>
+  </si>
+  <si>
+    <t>Vorname243</t>
+  </si>
+  <si>
+    <t>Nachname243</t>
+  </si>
+  <si>
+    <t>Vorname244</t>
+  </si>
+  <si>
+    <t>Nachname244</t>
+  </si>
+  <si>
+    <t>Vorname245</t>
+  </si>
+  <si>
+    <t>Nachname245</t>
+  </si>
+  <si>
+    <t>Vorname246</t>
+  </si>
+  <si>
+    <t>Nachname246</t>
+  </si>
+  <si>
+    <t>Vorname247</t>
+  </si>
+  <si>
+    <t>Nachname247</t>
+  </si>
+  <si>
+    <t>Vorname248</t>
+  </si>
+  <si>
+    <t>Nachname248</t>
+  </si>
+  <si>
+    <t>Vorname249</t>
+  </si>
+  <si>
+    <t>Nachname249</t>
+  </si>
+  <si>
+    <t>Vorname250</t>
+  </si>
+  <si>
+    <t>Nachname250</t>
+  </si>
+  <si>
+    <t>Vorname251</t>
+  </si>
+  <si>
+    <t>Nachname251</t>
+  </si>
+  <si>
+    <t>Vorname252</t>
+  </si>
+  <si>
+    <t>Nachname252</t>
+  </si>
+  <si>
+    <t>Vorname253</t>
+  </si>
+  <si>
+    <t>Nachname253</t>
+  </si>
+  <si>
+    <t>Vorname254</t>
+  </si>
+  <si>
+    <t>Nachname254</t>
+  </si>
+  <si>
+    <t>Vorname255</t>
+  </si>
+  <si>
+    <t>Nachname255</t>
+  </si>
+  <si>
+    <t>Vorname256</t>
+  </si>
+  <si>
+    <t>Nachname256</t>
+  </si>
+  <si>
+    <t>Vorname257</t>
+  </si>
+  <si>
+    <t>Nachname257</t>
+  </si>
+  <si>
+    <t>Vorname258</t>
+  </si>
+  <si>
+    <t>Nachname258</t>
+  </si>
+  <si>
+    <t>Vorname259</t>
+  </si>
+  <si>
+    <t>Nachname259</t>
+  </si>
+  <si>
+    <t>Vorname260</t>
+  </si>
+  <si>
+    <t>Nachname260</t>
+  </si>
+  <si>
+    <t>Vorname261</t>
+  </si>
+  <si>
+    <t>Nachname261</t>
+  </si>
+  <si>
+    <t>Vorname262</t>
+  </si>
+  <si>
+    <t>Nachname262</t>
+  </si>
+  <si>
+    <t>Vorname263</t>
+  </si>
+  <si>
+    <t>Nachname263</t>
+  </si>
+  <si>
+    <t>Vorname264</t>
+  </si>
+  <si>
+    <t>Nachname264</t>
+  </si>
+  <si>
+    <t>Vorname265</t>
+  </si>
+  <si>
+    <t>Nachname265</t>
+  </si>
+  <si>
+    <t>Vorname266</t>
+  </si>
+  <si>
+    <t>Nachname266</t>
+  </si>
+  <si>
+    <t>Vorname267</t>
+  </si>
+  <si>
+    <t>Nachname267</t>
+  </si>
+  <si>
+    <t>Vorname268</t>
+  </si>
+  <si>
+    <t>Nachname268</t>
+  </si>
+  <si>
+    <t>Vorname269</t>
+  </si>
+  <si>
+    <t>Nachname269</t>
+  </si>
+  <si>
+    <t>Vorname270</t>
+  </si>
+  <si>
+    <t>Nachname270</t>
+  </si>
+  <si>
+    <t>Vorname271</t>
+  </si>
+  <si>
+    <t>Nachname271</t>
+  </si>
+  <si>
+    <t>Vorname272</t>
+  </si>
+  <si>
+    <t>Nachname272</t>
+  </si>
+  <si>
+    <t>Vorname273</t>
+  </si>
+  <si>
+    <t>Nachname273</t>
+  </si>
+  <si>
+    <t>Vorname274</t>
+  </si>
+  <si>
+    <t>Nachname274</t>
+  </si>
+  <si>
+    <t>Vorname275</t>
+  </si>
+  <si>
+    <t>Nachname275</t>
+  </si>
+  <si>
+    <t>Vorname276</t>
+  </si>
+  <si>
+    <t>Nachname276</t>
+  </si>
+  <si>
+    <t>Vorname277</t>
+  </si>
+  <si>
+    <t>Nachname277</t>
+  </si>
+  <si>
+    <t>Vorname278</t>
+  </si>
+  <si>
+    <t>Nachname278</t>
+  </si>
+  <si>
+    <t>Vorname279</t>
+  </si>
+  <si>
+    <t>Nachname279</t>
+  </si>
+  <si>
+    <t>Vorname280</t>
+  </si>
+  <si>
+    <t>Nachname280</t>
+  </si>
+  <si>
+    <t>Vorname281</t>
+  </si>
+  <si>
+    <t>Nachname281</t>
+  </si>
+  <si>
+    <t>Vorname282</t>
+  </si>
+  <si>
+    <t>Nachname282</t>
+  </si>
+  <si>
+    <t>Vorname283</t>
+  </si>
+  <si>
+    <t>Nachname283</t>
+  </si>
+  <si>
+    <t>Vorname284</t>
+  </si>
+  <si>
+    <t>Nachname284</t>
+  </si>
+  <si>
+    <t>Vorname285</t>
+  </si>
+  <si>
+    <t>Nachname285</t>
+  </si>
+  <si>
+    <t>Vorname286</t>
+  </si>
+  <si>
+    <t>Nachname286</t>
+  </si>
+  <si>
+    <t>Vorname287</t>
+  </si>
+  <si>
+    <t>Nachname287</t>
+  </si>
+  <si>
+    <t>Vorname288</t>
+  </si>
+  <si>
+    <t>Nachname288</t>
+  </si>
+  <si>
+    <t>Vorname289</t>
+  </si>
+  <si>
+    <t>Nachname289</t>
+  </si>
+  <si>
+    <t>Vorname290</t>
+  </si>
+  <si>
+    <t>Nachname290</t>
+  </si>
+  <si>
+    <t>Vorname291</t>
+  </si>
+  <si>
+    <t>Nachname291</t>
+  </si>
+  <si>
+    <t>Vorname292</t>
+  </si>
+  <si>
+    <t>Nachname292</t>
+  </si>
+  <si>
+    <t>Vorname293</t>
+  </si>
+  <si>
+    <t>Nachname293</t>
+  </si>
+  <si>
+    <t>Vorname294</t>
+  </si>
+  <si>
+    <t>Nachname294</t>
+  </si>
+  <si>
+    <t>Vorname295</t>
+  </si>
+  <si>
+    <t>Nachname295</t>
+  </si>
+  <si>
+    <t>Vorname296</t>
+  </si>
+  <si>
+    <t>Nachname296</t>
+  </si>
+  <si>
+    <t>Vorname297</t>
+  </si>
+  <si>
+    <t>Nachname297</t>
+  </si>
+  <si>
+    <t>Vorname298</t>
+  </si>
+  <si>
+    <t>Nachname298</t>
+  </si>
+  <si>
+    <t>Vorname299</t>
+  </si>
+  <si>
+    <t>Nachname299</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1299,7 +1899,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="3">
@@ -1313,7 +1913,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>48.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="4">
@@ -1327,7 +1927,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>31.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="5">
@@ -1341,7 +1941,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>59.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="6">
@@ -1355,7 +1955,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>40.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="7">
@@ -1369,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>55.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="8">
@@ -1383,7 +1983,7 @@
         <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>32.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="9">
@@ -1397,7 +1997,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>45.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="10">
@@ -1411,7 +2011,7 @@
         <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>46.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="11">
@@ -1425,7 +2025,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>28.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="12">
@@ -1439,7 +2039,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>29.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="13">
@@ -1453,7 +2053,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>27.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="14">
@@ -1467,7 +2067,7 @@
         <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>21.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="15">
@@ -1481,7 +2081,7 @@
         <v>31</v>
       </c>
       <c r="D15" t="n">
-        <v>46.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="16">
@@ -1495,7 +2095,7 @@
         <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>26.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="17">
@@ -1509,7 +2109,7 @@
         <v>35</v>
       </c>
       <c r="D17" t="n">
-        <v>29.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="18">
@@ -1523,7 +2123,7 @@
         <v>37</v>
       </c>
       <c r="D18" t="n">
-        <v>27.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="19">
@@ -1537,7 +2137,7 @@
         <v>39</v>
       </c>
       <c r="D19" t="n">
-        <v>20.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="20">
@@ -1551,7 +2151,7 @@
         <v>41</v>
       </c>
       <c r="D20" t="n">
-        <v>44.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="21">
@@ -1565,7 +2165,7 @@
         <v>43</v>
       </c>
       <c r="D21" t="n">
-        <v>66.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="22">
@@ -1579,7 +2179,7 @@
         <v>45</v>
       </c>
       <c r="D22" t="n">
-        <v>65.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="23">
@@ -1593,7 +2193,7 @@
         <v>47</v>
       </c>
       <c r="D23" t="n">
-        <v>38.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="24">
@@ -1607,7 +2207,7 @@
         <v>49</v>
       </c>
       <c r="D24" t="n">
-        <v>32.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +2221,7 @@
         <v>51</v>
       </c>
       <c r="D25" t="n">
-        <v>53.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="26">
@@ -1635,7 +2235,7 @@
         <v>53</v>
       </c>
       <c r="D26" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="27">
@@ -1649,7 +2249,7 @@
         <v>55</v>
       </c>
       <c r="D27" t="n">
-        <v>28.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="28">
@@ -1663,7 +2263,7 @@
         <v>57</v>
       </c>
       <c r="D28" t="n">
-        <v>28.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="29">
@@ -1677,7 +2277,7 @@
         <v>59</v>
       </c>
       <c r="D29" t="n">
-        <v>25.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="30">
@@ -1691,7 +2291,7 @@
         <v>61</v>
       </c>
       <c r="D30" t="n">
-        <v>29.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="31">
@@ -1705,7 +2305,7 @@
         <v>63</v>
       </c>
       <c r="D31" t="n">
-        <v>60.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="32">
@@ -1719,7 +2319,7 @@
         <v>65</v>
       </c>
       <c r="D32" t="n">
-        <v>21.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="33">
@@ -1733,7 +2333,7 @@
         <v>67</v>
       </c>
       <c r="D33" t="n">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="34">
@@ -1747,7 +2347,7 @@
         <v>69</v>
       </c>
       <c r="D34" t="n">
-        <v>36.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="35">
@@ -1761,7 +2361,7 @@
         <v>71</v>
       </c>
       <c r="D35" t="n">
-        <v>42.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="36">
@@ -1775,7 +2375,7 @@
         <v>73</v>
       </c>
       <c r="D36" t="n">
-        <v>60.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="37">
@@ -1789,7 +2389,7 @@
         <v>75</v>
       </c>
       <c r="D37" t="n">
-        <v>29.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="38">
@@ -1803,7 +2403,7 @@
         <v>77</v>
       </c>
       <c r="D38" t="n">
-        <v>46.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="39">
@@ -1817,7 +2417,7 @@
         <v>79</v>
       </c>
       <c r="D39" t="n">
-        <v>21.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="40">
@@ -1831,7 +2431,7 @@
         <v>81</v>
       </c>
       <c r="D40" t="n">
-        <v>35.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="41">
@@ -1845,7 +2445,7 @@
         <v>83</v>
       </c>
       <c r="D41" t="n">
-        <v>65.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="42">
@@ -1859,7 +2459,7 @@
         <v>85</v>
       </c>
       <c r="D42" t="n">
-        <v>27.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="43">
@@ -1873,7 +2473,7 @@
         <v>87</v>
       </c>
       <c r="D43" t="n">
-        <v>43.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="44">
@@ -1887,7 +2487,7 @@
         <v>89</v>
       </c>
       <c r="D44" t="n">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="45">
@@ -1901,7 +2501,7 @@
         <v>91</v>
       </c>
       <c r="D45" t="n">
-        <v>49.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="46">
@@ -1915,7 +2515,7 @@
         <v>93</v>
       </c>
       <c r="D46" t="n">
-        <v>60.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="47">
@@ -1929,7 +2529,7 @@
         <v>95</v>
       </c>
       <c r="D47" t="n">
-        <v>43.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="48">
@@ -1943,7 +2543,7 @@
         <v>97</v>
       </c>
       <c r="D48" t="n">
-        <v>18.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="49">
@@ -1957,7 +2557,7 @@
         <v>99</v>
       </c>
       <c r="D49" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="50">
@@ -1971,7 +2571,7 @@
         <v>101</v>
       </c>
       <c r="D50" t="n">
-        <v>53.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="51">
@@ -1985,7 +2585,7 @@
         <v>103</v>
       </c>
       <c r="D51" t="n">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="52">
@@ -1999,7 +2599,7 @@
         <v>105</v>
       </c>
       <c r="D52" t="n">
-        <v>60.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="53">
@@ -2013,7 +2613,7 @@
         <v>107</v>
       </c>
       <c r="D53" t="n">
-        <v>37.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="54">
@@ -2027,7 +2627,7 @@
         <v>109</v>
       </c>
       <c r="D54" t="n">
-        <v>19.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="55">
@@ -2041,7 +2641,7 @@
         <v>111</v>
       </c>
       <c r="D55" t="n">
-        <v>60.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="56">
@@ -2055,7 +2655,7 @@
         <v>113</v>
       </c>
       <c r="D56" t="n">
-        <v>54.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="57">
@@ -2069,7 +2669,7 @@
         <v>115</v>
       </c>
       <c r="D57" t="n">
-        <v>53.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="58">
@@ -2083,7 +2683,7 @@
         <v>117</v>
       </c>
       <c r="D58" t="n">
-        <v>67.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="59">
@@ -2097,7 +2697,7 @@
         <v>119</v>
       </c>
       <c r="D59" t="n">
-        <v>47.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="60">
@@ -2111,7 +2711,7 @@
         <v>121</v>
       </c>
       <c r="D60" t="n">
-        <v>47.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="61">
@@ -2125,7 +2725,7 @@
         <v>123</v>
       </c>
       <c r="D61" t="n">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="62">
@@ -2139,7 +2739,7 @@
         <v>125</v>
       </c>
       <c r="D62" t="n">
-        <v>20.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="63">
@@ -2153,7 +2753,7 @@
         <v>127</v>
       </c>
       <c r="D63" t="n">
-        <v>57.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="64">
@@ -2167,7 +2767,7 @@
         <v>129</v>
       </c>
       <c r="D64" t="n">
-        <v>57.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="65">
@@ -2181,7 +2781,7 @@
         <v>131</v>
       </c>
       <c r="D65" t="n">
-        <v>59.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="66">
@@ -2195,7 +2795,7 @@
         <v>133</v>
       </c>
       <c r="D66" t="n">
-        <v>46.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="67">
@@ -2209,7 +2809,7 @@
         <v>135</v>
       </c>
       <c r="D67" t="n">
-        <v>32.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="68">
@@ -2223,7 +2823,7 @@
         <v>137</v>
       </c>
       <c r="D68" t="n">
-        <v>28.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="69">
@@ -2237,7 +2837,7 @@
         <v>139</v>
       </c>
       <c r="D69" t="n">
-        <v>65.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="70">
@@ -2251,7 +2851,7 @@
         <v>141</v>
       </c>
       <c r="D70" t="n">
-        <v>51.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="71">
@@ -2265,7 +2865,7 @@
         <v>143</v>
       </c>
       <c r="D71" t="n">
-        <v>66.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="72">
@@ -2279,7 +2879,7 @@
         <v>145</v>
       </c>
       <c r="D72" t="n">
-        <v>48.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="73">
@@ -2293,7 +2893,7 @@
         <v>147</v>
       </c>
       <c r="D73" t="n">
-        <v>52.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="74">
@@ -2307,7 +2907,7 @@
         <v>149</v>
       </c>
       <c r="D74" t="n">
-        <v>20.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="75">
@@ -2321,7 +2921,7 @@
         <v>151</v>
       </c>
       <c r="D75" t="n">
-        <v>50.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="76">
@@ -2335,7 +2935,7 @@
         <v>153</v>
       </c>
       <c r="D76" t="n">
-        <v>64.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="77">
@@ -2349,7 +2949,7 @@
         <v>155</v>
       </c>
       <c r="D77" t="n">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="78">
@@ -2363,7 +2963,7 @@
         <v>157</v>
       </c>
       <c r="D78" t="n">
-        <v>27.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="79">
@@ -2377,7 +2977,7 @@
         <v>159</v>
       </c>
       <c r="D79" t="n">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="80">
@@ -2391,7 +2991,7 @@
         <v>161</v>
       </c>
       <c r="D80" t="n">
-        <v>23.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="81">
@@ -2405,7 +3005,7 @@
         <v>163</v>
       </c>
       <c r="D81" t="n">
-        <v>48.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="82">
@@ -2419,7 +3019,7 @@
         <v>165</v>
       </c>
       <c r="D82" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="83">
@@ -2433,7 +3033,7 @@
         <v>167</v>
       </c>
       <c r="D83" t="n">
-        <v>65.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="84">
@@ -2447,7 +3047,7 @@
         <v>169</v>
       </c>
       <c r="D84" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="85">
@@ -2461,7 +3061,7 @@
         <v>171</v>
       </c>
       <c r="D85" t="n">
-        <v>26.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="86">
@@ -2475,7 +3075,7 @@
         <v>173</v>
       </c>
       <c r="D86" t="n">
-        <v>63.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="87">
@@ -2489,7 +3089,7 @@
         <v>175</v>
       </c>
       <c r="D87" t="n">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="88">
@@ -2503,7 +3103,7 @@
         <v>177</v>
       </c>
       <c r="D88" t="n">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="89">
@@ -2517,7 +3117,7 @@
         <v>179</v>
       </c>
       <c r="D89" t="n">
-        <v>35.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="90">
@@ -2531,7 +3131,7 @@
         <v>181</v>
       </c>
       <c r="D90" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="91">
@@ -2545,7 +3145,7 @@
         <v>183</v>
       </c>
       <c r="D91" t="n">
-        <v>44.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="92">
@@ -2559,7 +3159,7 @@
         <v>185</v>
       </c>
       <c r="D92" t="n">
-        <v>49.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="93">
@@ -2587,7 +3187,7 @@
         <v>189</v>
       </c>
       <c r="D94" t="n">
-        <v>21.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="95">
@@ -2601,7 +3201,7 @@
         <v>191</v>
       </c>
       <c r="D95" t="n">
-        <v>34.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="96">
@@ -2615,7 +3215,7 @@
         <v>193</v>
       </c>
       <c r="D96" t="n">
-        <v>43.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="97">
@@ -2629,7 +3229,7 @@
         <v>195</v>
       </c>
       <c r="D97" t="n">
-        <v>65.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="98">
@@ -2643,7 +3243,7 @@
         <v>197</v>
       </c>
       <c r="D98" t="n">
-        <v>54.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="99">
@@ -2657,7 +3257,7 @@
         <v>199</v>
       </c>
       <c r="D99" t="n">
-        <v>46.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="100">
@@ -2671,7 +3271,7 @@
         <v>201</v>
       </c>
       <c r="D100" t="n">
-        <v>33.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="101">
@@ -2685,7 +3285,7 @@
         <v>203</v>
       </c>
       <c r="D101" t="n">
-        <v>45.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="102">
@@ -2699,7 +3299,7 @@
         <v>205</v>
       </c>
       <c r="D102" t="n">
-        <v>60.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="103">
@@ -2713,7 +3313,7 @@
         <v>207</v>
       </c>
       <c r="D103" t="n">
-        <v>60.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="104">
@@ -2727,7 +3327,7 @@
         <v>209</v>
       </c>
       <c r="D104" t="n">
-        <v>49.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="105">
@@ -2741,7 +3341,7 @@
         <v>211</v>
       </c>
       <c r="D105" t="n">
-        <v>63.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="106">
@@ -2755,7 +3355,7 @@
         <v>213</v>
       </c>
       <c r="D106" t="n">
-        <v>60.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="107">
@@ -2769,7 +3369,7 @@
         <v>215</v>
       </c>
       <c r="D107" t="n">
-        <v>59.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="108">
@@ -2783,7 +3383,7 @@
         <v>217</v>
       </c>
       <c r="D108" t="n">
-        <v>41.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="109">
@@ -2797,7 +3397,7 @@
         <v>219</v>
       </c>
       <c r="D109" t="n">
-        <v>62.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="110">
@@ -2811,7 +3411,7 @@
         <v>221</v>
       </c>
       <c r="D110" t="n">
-        <v>46.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="111">
@@ -2825,7 +3425,7 @@
         <v>223</v>
       </c>
       <c r="D111" t="n">
-        <v>19.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="112">
@@ -2839,7 +3439,7 @@
         <v>225</v>
       </c>
       <c r="D112" t="n">
-        <v>46.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="113">
@@ -2853,7 +3453,7 @@
         <v>227</v>
       </c>
       <c r="D113" t="n">
-        <v>38.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="114">
@@ -2867,7 +3467,7 @@
         <v>229</v>
       </c>
       <c r="D114" t="n">
-        <v>45.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="115">
@@ -2881,7 +3481,7 @@
         <v>231</v>
       </c>
       <c r="D115" t="n">
-        <v>41.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="116">
@@ -2895,7 +3495,7 @@
         <v>233</v>
       </c>
       <c r="D116" t="n">
-        <v>65.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="117">
@@ -2909,7 +3509,7 @@
         <v>235</v>
       </c>
       <c r="D117" t="n">
-        <v>62.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="118">
@@ -2923,7 +3523,7 @@
         <v>237</v>
       </c>
       <c r="D118" t="n">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="119">
@@ -2937,7 +3537,7 @@
         <v>239</v>
       </c>
       <c r="D119" t="n">
-        <v>51.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="120">
@@ -2951,7 +3551,7 @@
         <v>241</v>
       </c>
       <c r="D120" t="n">
-        <v>57.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="121">
@@ -2965,7 +3565,7 @@
         <v>243</v>
       </c>
       <c r="D121" t="n">
-        <v>51.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="122">
@@ -2979,7 +3579,7 @@
         <v>245</v>
       </c>
       <c r="D122" t="n">
-        <v>62.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="123">
@@ -2993,7 +3593,7 @@
         <v>247</v>
       </c>
       <c r="D123" t="n">
-        <v>67.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="124">
@@ -3007,7 +3607,7 @@
         <v>249</v>
       </c>
       <c r="D124" t="n">
-        <v>42.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="125">
@@ -3021,7 +3621,7 @@
         <v>251</v>
       </c>
       <c r="D125" t="n">
-        <v>38.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="126">
@@ -3035,7 +3635,7 @@
         <v>253</v>
       </c>
       <c r="D126" t="n">
-        <v>58.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="127">
@@ -3049,7 +3649,7 @@
         <v>255</v>
       </c>
       <c r="D127" t="n">
-        <v>44.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="128">
@@ -3063,7 +3663,7 @@
         <v>257</v>
       </c>
       <c r="D128" t="n">
-        <v>29.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="129">
@@ -3077,7 +3677,7 @@
         <v>259</v>
       </c>
       <c r="D129" t="n">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="130">
@@ -3091,7 +3691,7 @@
         <v>261</v>
       </c>
       <c r="D130" t="n">
-        <v>37.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="131">
@@ -3105,7 +3705,7 @@
         <v>263</v>
       </c>
       <c r="D131" t="n">
-        <v>38.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="132">
@@ -3119,7 +3719,7 @@
         <v>265</v>
       </c>
       <c r="D132" t="n">
-        <v>24.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="133">
@@ -3133,7 +3733,7 @@
         <v>267</v>
       </c>
       <c r="D133" t="n">
-        <v>24.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="134">
@@ -3147,7 +3747,7 @@
         <v>269</v>
       </c>
       <c r="D134" t="n">
-        <v>33.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="135">
@@ -3161,7 +3761,7 @@
         <v>271</v>
       </c>
       <c r="D135" t="n">
-        <v>25.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="136">
@@ -3175,7 +3775,7 @@
         <v>273</v>
       </c>
       <c r="D136" t="n">
-        <v>32.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="137">
@@ -3189,7 +3789,7 @@
         <v>275</v>
       </c>
       <c r="D137" t="n">
-        <v>59.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="138">
@@ -3203,7 +3803,7 @@
         <v>277</v>
       </c>
       <c r="D138" t="n">
-        <v>67.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="139">
@@ -3217,7 +3817,7 @@
         <v>279</v>
       </c>
       <c r="D139" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="140">
@@ -3231,7 +3831,7 @@
         <v>281</v>
       </c>
       <c r="D140" t="n">
-        <v>59.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="141">
@@ -3245,7 +3845,7 @@
         <v>283</v>
       </c>
       <c r="D141" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="142">
@@ -3259,7 +3859,7 @@
         <v>285</v>
       </c>
       <c r="D142" t="n">
-        <v>26.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="143">
@@ -3273,7 +3873,7 @@
         <v>287</v>
       </c>
       <c r="D143" t="n">
-        <v>26.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="144">
@@ -3287,7 +3887,7 @@
         <v>289</v>
       </c>
       <c r="D144" t="n">
-        <v>34.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="145">
@@ -3301,7 +3901,7 @@
         <v>291</v>
       </c>
       <c r="D145" t="n">
-        <v>58.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="146">
@@ -3315,7 +3915,7 @@
         <v>293</v>
       </c>
       <c r="D146" t="n">
-        <v>37.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="147">
@@ -3329,7 +3929,7 @@
         <v>295</v>
       </c>
       <c r="D147" t="n">
-        <v>24.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="148">
@@ -3343,7 +3943,7 @@
         <v>297</v>
       </c>
       <c r="D148" t="n">
-        <v>53.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="149">
@@ -3357,7 +3957,7 @@
         <v>299</v>
       </c>
       <c r="D149" t="n">
-        <v>21.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="150">
@@ -3385,7 +3985,7 @@
         <v>303</v>
       </c>
       <c r="D151" t="n">
-        <v>44.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="152">
@@ -3399,7 +3999,7 @@
         <v>305</v>
       </c>
       <c r="D152" t="n">
-        <v>32.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="153">
@@ -3413,7 +4013,7 @@
         <v>307</v>
       </c>
       <c r="D153" t="n">
-        <v>66.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="154">
@@ -3427,7 +4027,7 @@
         <v>309</v>
       </c>
       <c r="D154" t="n">
-        <v>62.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="155">
@@ -3441,7 +4041,7 @@
         <v>311</v>
       </c>
       <c r="D155" t="n">
-        <v>67.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="156">
@@ -3455,7 +4055,7 @@
         <v>313</v>
       </c>
       <c r="D156" t="n">
-        <v>41.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="157">
@@ -3469,7 +4069,7 @@
         <v>315</v>
       </c>
       <c r="D157" t="n">
-        <v>31.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="158">
@@ -3483,7 +4083,7 @@
         <v>317</v>
       </c>
       <c r="D158" t="n">
-        <v>26.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="159">
@@ -3497,7 +4097,7 @@
         <v>319</v>
       </c>
       <c r="D159" t="n">
-        <v>49.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="160">
@@ -3511,7 +4111,7 @@
         <v>321</v>
       </c>
       <c r="D160" t="n">
-        <v>41.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="161">
@@ -3525,7 +4125,7 @@
         <v>323</v>
       </c>
       <c r="D161" t="n">
-        <v>21.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="162">
@@ -3539,7 +4139,7 @@
         <v>325</v>
       </c>
       <c r="D162" t="n">
-        <v>55.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="163">
@@ -3553,7 +4153,7 @@
         <v>327</v>
       </c>
       <c r="D163" t="n">
-        <v>28.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="164">
@@ -3567,7 +4167,7 @@
         <v>329</v>
       </c>
       <c r="D164" t="n">
-        <v>50.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="165">
@@ -3581,7 +4181,7 @@
         <v>331</v>
       </c>
       <c r="D165" t="n">
-        <v>19.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="166">
@@ -3595,7 +4195,7 @@
         <v>333</v>
       </c>
       <c r="D166" t="n">
-        <v>35.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="167">
@@ -3609,7 +4209,7 @@
         <v>335</v>
       </c>
       <c r="D167" t="n">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="168">
@@ -3623,7 +4223,7 @@
         <v>337</v>
       </c>
       <c r="D168" t="n">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="169">
@@ -3637,7 +4237,7 @@
         <v>339</v>
       </c>
       <c r="D169" t="n">
-        <v>47.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="170">
@@ -3651,7 +4251,7 @@
         <v>341</v>
       </c>
       <c r="D170" t="n">
-        <v>57.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="171">
@@ -3665,7 +4265,7 @@
         <v>343</v>
       </c>
       <c r="D171" t="n">
-        <v>43.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="172">
@@ -3679,7 +4279,7 @@
         <v>345</v>
       </c>
       <c r="D172" t="n">
-        <v>60.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="173">
@@ -3693,7 +4293,7 @@
         <v>347</v>
       </c>
       <c r="D173" t="n">
-        <v>38.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="174">
@@ -3707,7 +4307,7 @@
         <v>349</v>
       </c>
       <c r="D174" t="n">
-        <v>63.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="175">
@@ -3721,7 +4321,7 @@
         <v>351</v>
       </c>
       <c r="D175" t="n">
-        <v>58.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="176">
@@ -3735,7 +4335,7 @@
         <v>353</v>
       </c>
       <c r="D176" t="n">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="177">
@@ -3749,7 +4349,7 @@
         <v>355</v>
       </c>
       <c r="D177" t="n">
-        <v>67.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="178">
@@ -3763,7 +4363,7 @@
         <v>357</v>
       </c>
       <c r="D178" t="n">
-        <v>45.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="179">
@@ -3777,7 +4377,7 @@
         <v>359</v>
       </c>
       <c r="D179" t="n">
-        <v>43.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="180">
@@ -3791,7 +4391,7 @@
         <v>361</v>
       </c>
       <c r="D180" t="n">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="181">
@@ -3805,7 +4405,7 @@
         <v>363</v>
       </c>
       <c r="D181" t="n">
-        <v>65.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="182">
@@ -3819,7 +4419,7 @@
         <v>365</v>
       </c>
       <c r="D182" t="n">
-        <v>50.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="183">
@@ -3833,7 +4433,7 @@
         <v>367</v>
       </c>
       <c r="D183" t="n">
-        <v>40.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="184">
@@ -3847,7 +4447,7 @@
         <v>369</v>
       </c>
       <c r="D184" t="n">
-        <v>39.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="185">
@@ -3861,7 +4461,7 @@
         <v>371</v>
       </c>
       <c r="D185" t="n">
-        <v>31.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="186">
@@ -3875,7 +4475,7 @@
         <v>373</v>
       </c>
       <c r="D186" t="n">
-        <v>19.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="187">
@@ -3889,7 +4489,7 @@
         <v>375</v>
       </c>
       <c r="D187" t="n">
-        <v>63.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="188">
@@ -3903,7 +4503,7 @@
         <v>377</v>
       </c>
       <c r="D188" t="n">
-        <v>49.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="189">
@@ -3917,7 +4517,7 @@
         <v>379</v>
       </c>
       <c r="D189" t="n">
-        <v>50.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="190">
@@ -3931,7 +4531,7 @@
         <v>381</v>
       </c>
       <c r="D190" t="n">
-        <v>31.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="191">
@@ -3945,7 +4545,7 @@
         <v>383</v>
       </c>
       <c r="D191" t="n">
-        <v>55.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="192">
@@ -3959,7 +4559,7 @@
         <v>385</v>
       </c>
       <c r="D192" t="n">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="193">
@@ -3973,7 +4573,7 @@
         <v>387</v>
       </c>
       <c r="D193" t="n">
-        <v>51.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="194">
@@ -3987,7 +4587,7 @@
         <v>389</v>
       </c>
       <c r="D194" t="n">
-        <v>26.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="195">
@@ -4001,7 +4601,7 @@
         <v>391</v>
       </c>
       <c r="D195" t="n">
-        <v>30.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="196">
@@ -4015,7 +4615,7 @@
         <v>393</v>
       </c>
       <c r="D196" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="197">
@@ -4029,7 +4629,7 @@
         <v>395</v>
       </c>
       <c r="D197" t="n">
-        <v>37.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="198">
@@ -4043,7 +4643,7 @@
         <v>397</v>
       </c>
       <c r="D198" t="n">
-        <v>26.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="199">
@@ -4057,7 +4657,7 @@
         <v>399</v>
       </c>
       <c r="D199" t="n">
-        <v>36.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="200">
@@ -4071,7 +4671,7 @@
         <v>401</v>
       </c>
       <c r="D200" t="n">
-        <v>53.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="201">
@@ -4085,7 +4685,1407 @@
         <v>403</v>
       </c>
       <c r="D201" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="B202" t="s">
+        <v>404</v>
+      </c>
+      <c r="C202" t="s">
+        <v>405</v>
+      </c>
+      <c r="D202" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="B203" t="s">
+        <v>406</v>
+      </c>
+      <c r="C203" t="s">
+        <v>407</v>
+      </c>
+      <c r="D203" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B204" t="s">
+        <v>408</v>
+      </c>
+      <c r="C204" t="s">
+        <v>409</v>
+      </c>
+      <c r="D204" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="B205" t="s">
+        <v>410</v>
+      </c>
+      <c r="C205" t="s">
+        <v>411</v>
+      </c>
+      <c r="D205" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="B206" t="s">
+        <v>412</v>
+      </c>
+      <c r="C206" t="s">
+        <v>413</v>
+      </c>
+      <c r="D206" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="B207" t="s">
+        <v>414</v>
+      </c>
+      <c r="C207" t="s">
+        <v>415</v>
+      </c>
+      <c r="D207" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="B208" t="s">
+        <v>416</v>
+      </c>
+      <c r="C208" t="s">
+        <v>417</v>
+      </c>
+      <c r="D208" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="B209" t="s">
+        <v>418</v>
+      </c>
+      <c r="C209" t="s">
+        <v>419</v>
+      </c>
+      <c r="D209" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="B210" t="s">
+        <v>420</v>
+      </c>
+      <c r="C210" t="s">
+        <v>421</v>
+      </c>
+      <c r="D210" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="B211" t="s">
+        <v>422</v>
+      </c>
+      <c r="C211" t="s">
+        <v>423</v>
+      </c>
+      <c r="D211" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="B212" t="s">
+        <v>424</v>
+      </c>
+      <c r="C212" t="s">
+        <v>425</v>
+      </c>
+      <c r="D212" t="n">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>426</v>
+      </c>
+      <c r="C213" t="s">
+        <v>427</v>
+      </c>
+      <c r="D213" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>428</v>
+      </c>
+      <c r="C214" t="s">
+        <v>429</v>
+      </c>
+      <c r="D214" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>430</v>
+      </c>
+      <c r="C215" t="s">
+        <v>431</v>
+      </c>
+      <c r="D215" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>432</v>
+      </c>
+      <c r="C216" t="s">
+        <v>433</v>
+      </c>
+      <c r="D216" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>434</v>
+      </c>
+      <c r="C217" t="s">
+        <v>435</v>
+      </c>
+      <c r="D217" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>436</v>
+      </c>
+      <c r="C218" t="s">
+        <v>437</v>
+      </c>
+      <c r="D218" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="B219" t="s">
+        <v>438</v>
+      </c>
+      <c r="C219" t="s">
+        <v>439</v>
+      </c>
+      <c r="D219" t="n">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="B220" t="s">
+        <v>440</v>
+      </c>
+      <c r="C220" t="s">
+        <v>441</v>
+      </c>
+      <c r="D220" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="B221" t="s">
+        <v>442</v>
+      </c>
+      <c r="C221" t="s">
+        <v>443</v>
+      </c>
+      <c r="D221" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="B222" t="s">
+        <v>444</v>
+      </c>
+      <c r="C222" t="s">
+        <v>445</v>
+      </c>
+      <c r="D222" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="B223" t="s">
+        <v>446</v>
+      </c>
+      <c r="C223" t="s">
+        <v>447</v>
+      </c>
+      <c r="D223" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="B224" t="s">
+        <v>448</v>
+      </c>
+      <c r="C224" t="s">
+        <v>449</v>
+      </c>
+      <c r="D224" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="B225" t="s">
+        <v>450</v>
+      </c>
+      <c r="C225" t="s">
+        <v>451</v>
+      </c>
+      <c r="D225" t="n">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="B226" t="s">
+        <v>452</v>
+      </c>
+      <c r="C226" t="s">
+        <v>453</v>
+      </c>
+      <c r="D226" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="B227" t="s">
+        <v>454</v>
+      </c>
+      <c r="C227" t="s">
+        <v>455</v>
+      </c>
+      <c r="D227" t="n">
+        <v>62.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="B228" t="s">
+        <v>456</v>
+      </c>
+      <c r="C228" t="s">
+        <v>457</v>
+      </c>
+      <c r="D228" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="B229" t="s">
+        <v>458</v>
+      </c>
+      <c r="C229" t="s">
+        <v>459</v>
+      </c>
+      <c r="D229" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="B230" t="s">
+        <v>460</v>
+      </c>
+      <c r="C230" t="s">
+        <v>461</v>
+      </c>
+      <c r="D230" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="B231" t="s">
+        <v>462</v>
+      </c>
+      <c r="C231" t="s">
+        <v>463</v>
+      </c>
+      <c r="D231" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="B232" t="s">
+        <v>464</v>
+      </c>
+      <c r="C232" t="s">
+        <v>465</v>
+      </c>
+      <c r="D232" t="n">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="B233" t="s">
+        <v>466</v>
+      </c>
+      <c r="C233" t="s">
+        <v>467</v>
+      </c>
+      <c r="D233" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B234" t="s">
+        <v>468</v>
+      </c>
+      <c r="C234" t="s">
+        <v>469</v>
+      </c>
+      <c r="D234" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>234.0</v>
+      </c>
+      <c r="B235" t="s">
+        <v>470</v>
+      </c>
+      <c r="C235" t="s">
+        <v>471</v>
+      </c>
+      <c r="D235" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="B236" t="s">
+        <v>472</v>
+      </c>
+      <c r="C236" t="s">
+        <v>473</v>
+      </c>
+      <c r="D236" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>236.0</v>
+      </c>
+      <c r="B237" t="s">
+        <v>474</v>
+      </c>
+      <c r="C237" t="s">
+        <v>475</v>
+      </c>
+      <c r="D237" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="B238" t="s">
+        <v>476</v>
+      </c>
+      <c r="C238" t="s">
+        <v>477</v>
+      </c>
+      <c r="D238" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="B239" t="s">
+        <v>478</v>
+      </c>
+      <c r="C239" t="s">
+        <v>479</v>
+      </c>
+      <c r="D239" t="n">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="B240" t="s">
+        <v>480</v>
+      </c>
+      <c r="C240" t="s">
+        <v>481</v>
+      </c>
+      <c r="D240" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="B241" t="s">
+        <v>482</v>
+      </c>
+      <c r="C241" t="s">
+        <v>483</v>
+      </c>
+      <c r="D241" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="B242" t="s">
+        <v>484</v>
+      </c>
+      <c r="C242" t="s">
+        <v>485</v>
+      </c>
+      <c r="D242" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>242.0</v>
+      </c>
+      <c r="B243" t="s">
+        <v>486</v>
+      </c>
+      <c r="C243" t="s">
+        <v>487</v>
+      </c>
+      <c r="D243" t="n">
+        <v>62.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="B244" t="s">
+        <v>488</v>
+      </c>
+      <c r="C244" t="s">
+        <v>489</v>
+      </c>
+      <c r="D244" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="B245" t="s">
+        <v>490</v>
+      </c>
+      <c r="C245" t="s">
+        <v>491</v>
+      </c>
+      <c r="D245" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="B246" t="s">
+        <v>492</v>
+      </c>
+      <c r="C246" t="s">
+        <v>493</v>
+      </c>
+      <c r="D246" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B247" t="s">
+        <v>494</v>
+      </c>
+      <c r="C247" t="s">
+        <v>495</v>
+      </c>
+      <c r="D247" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="B248" t="s">
+        <v>496</v>
+      </c>
+      <c r="C248" t="s">
+        <v>497</v>
+      </c>
+      <c r="D248" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="B249" t="s">
+        <v>498</v>
+      </c>
+      <c r="C249" t="s">
+        <v>499</v>
+      </c>
+      <c r="D249" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="B250" t="s">
+        <v>500</v>
+      </c>
+      <c r="C250" t="s">
+        <v>501</v>
+      </c>
+      <c r="D250" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="B251" t="s">
+        <v>502</v>
+      </c>
+      <c r="C251" t="s">
+        <v>503</v>
+      </c>
+      <c r="D251" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="B252" t="s">
+        <v>504</v>
+      </c>
+      <c r="C252" t="s">
+        <v>505</v>
+      </c>
+      <c r="D252" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="B253" t="s">
+        <v>506</v>
+      </c>
+      <c r="C253" t="s">
+        <v>507</v>
+      </c>
+      <c r="D253" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="B254" t="s">
+        <v>508</v>
+      </c>
+      <c r="C254" t="s">
+        <v>509</v>
+      </c>
+      <c r="D254" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>254.0</v>
+      </c>
+      <c r="B255" t="s">
+        <v>510</v>
+      </c>
+      <c r="C255" t="s">
+        <v>511</v>
+      </c>
+      <c r="D255" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="B256" t="s">
+        <v>512</v>
+      </c>
+      <c r="C256" t="s">
+        <v>513</v>
+      </c>
+      <c r="D256" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="B257" t="s">
+        <v>514</v>
+      </c>
+      <c r="C257" t="s">
+        <v>515</v>
+      </c>
+      <c r="D257" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>257.0</v>
+      </c>
+      <c r="B258" t="s">
+        <v>516</v>
+      </c>
+      <c r="C258" t="s">
+        <v>517</v>
+      </c>
+      <c r="D258" t="n">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="B259" t="s">
+        <v>518</v>
+      </c>
+      <c r="C259" t="s">
+        <v>519</v>
+      </c>
+      <c r="D259" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>259.0</v>
+      </c>
+      <c r="B260" t="s">
+        <v>520</v>
+      </c>
+      <c r="C260" t="s">
+        <v>521</v>
+      </c>
+      <c r="D260" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="B261" t="s">
+        <v>522</v>
+      </c>
+      <c r="C261" t="s">
+        <v>523</v>
+      </c>
+      <c r="D261" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>261.0</v>
+      </c>
+      <c r="B262" t="s">
+        <v>524</v>
+      </c>
+      <c r="C262" t="s">
+        <v>525</v>
+      </c>
+      <c r="D262" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="B263" t="s">
+        <v>526</v>
+      </c>
+      <c r="C263" t="s">
+        <v>527</v>
+      </c>
+      <c r="D263" t="n">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="B264" t="s">
+        <v>528</v>
+      </c>
+      <c r="C264" t="s">
+        <v>529</v>
+      </c>
+      <c r="D264" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="B265" t="s">
+        <v>530</v>
+      </c>
+      <c r="C265" t="s">
+        <v>531</v>
+      </c>
+      <c r="D265" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="B266" t="s">
+        <v>532</v>
+      </c>
+      <c r="C266" t="s">
+        <v>533</v>
+      </c>
+      <c r="D266" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="B267" t="s">
+        <v>534</v>
+      </c>
+      <c r="C267" t="s">
+        <v>535</v>
+      </c>
+      <c r="D267" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="B268" t="s">
+        <v>536</v>
+      </c>
+      <c r="C268" t="s">
+        <v>537</v>
+      </c>
+      <c r="D268" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="B269" t="s">
+        <v>538</v>
+      </c>
+      <c r="C269" t="s">
+        <v>539</v>
+      </c>
+      <c r="D269" t="n">
+        <v>62.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="B270" t="s">
+        <v>540</v>
+      </c>
+      <c r="C270" t="s">
+        <v>541</v>
+      </c>
+      <c r="D270" t="n">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="B271" t="s">
+        <v>542</v>
+      </c>
+      <c r="C271" t="s">
+        <v>543</v>
+      </c>
+      <c r="D271" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="B272" t="s">
+        <v>544</v>
+      </c>
+      <c r="C272" t="s">
+        <v>545</v>
+      </c>
+      <c r="D272" t="n">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="B273" t="s">
+        <v>546</v>
+      </c>
+      <c r="C273" t="s">
+        <v>547</v>
+      </c>
+      <c r="D273" t="n">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="B274" t="s">
+        <v>548</v>
+      </c>
+      <c r="C274" t="s">
+        <v>549</v>
+      </c>
+      <c r="D274" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="B275" t="s">
+        <v>550</v>
+      </c>
+      <c r="C275" t="s">
+        <v>551</v>
+      </c>
+      <c r="D275" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="B276" t="s">
+        <v>552</v>
+      </c>
+      <c r="C276" t="s">
+        <v>553</v>
+      </c>
+      <c r="D276" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B277" t="s">
+        <v>554</v>
+      </c>
+      <c r="C277" t="s">
+        <v>555</v>
+      </c>
+      <c r="D277" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="B278" t="s">
+        <v>556</v>
+      </c>
+      <c r="C278" t="s">
+        <v>557</v>
+      </c>
+      <c r="D278" t="n">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="B279" t="s">
+        <v>558</v>
+      </c>
+      <c r="C279" t="s">
+        <v>559</v>
+      </c>
+      <c r="D279" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>279.0</v>
+      </c>
+      <c r="B280" t="s">
+        <v>560</v>
+      </c>
+      <c r="C280" t="s">
+        <v>561</v>
+      </c>
+      <c r="D280" t="n">
+        <v>52.0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="B281" t="s">
+        <v>562</v>
+      </c>
+      <c r="C281" t="s">
+        <v>563</v>
+      </c>
+      <c r="D281" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>281.0</v>
+      </c>
+      <c r="B282" t="s">
+        <v>564</v>
+      </c>
+      <c r="C282" t="s">
+        <v>565</v>
+      </c>
+      <c r="D282" t="n">
         <v>32.0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>282.0</v>
+      </c>
+      <c r="B283" t="s">
+        <v>566</v>
+      </c>
+      <c r="C283" t="s">
+        <v>567</v>
+      </c>
+      <c r="D283" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="B284" t="s">
+        <v>568</v>
+      </c>
+      <c r="C284" t="s">
+        <v>569</v>
+      </c>
+      <c r="D284" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>284.0</v>
+      </c>
+      <c r="B285" t="s">
+        <v>570</v>
+      </c>
+      <c r="C285" t="s">
+        <v>571</v>
+      </c>
+      <c r="D285" t="n">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="B286" t="s">
+        <v>572</v>
+      </c>
+      <c r="C286" t="s">
+        <v>573</v>
+      </c>
+      <c r="D286" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="B287" t="s">
+        <v>574</v>
+      </c>
+      <c r="C287" t="s">
+        <v>575</v>
+      </c>
+      <c r="D287" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="B288" t="s">
+        <v>576</v>
+      </c>
+      <c r="C288" t="s">
+        <v>577</v>
+      </c>
+      <c r="D288" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="B289" t="s">
+        <v>578</v>
+      </c>
+      <c r="C289" t="s">
+        <v>579</v>
+      </c>
+      <c r="D289" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>289.0</v>
+      </c>
+      <c r="B290" t="s">
+        <v>580</v>
+      </c>
+      <c r="C290" t="s">
+        <v>581</v>
+      </c>
+      <c r="D290" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="B291" t="s">
+        <v>582</v>
+      </c>
+      <c r="C291" t="s">
+        <v>583</v>
+      </c>
+      <c r="D291" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>291.0</v>
+      </c>
+      <c r="B292" t="s">
+        <v>584</v>
+      </c>
+      <c r="C292" t="s">
+        <v>585</v>
+      </c>
+      <c r="D292" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="B293" t="s">
+        <v>586</v>
+      </c>
+      <c r="C293" t="s">
+        <v>587</v>
+      </c>
+      <c r="D293" t="n">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="B294" t="s">
+        <v>588</v>
+      </c>
+      <c r="C294" t="s">
+        <v>589</v>
+      </c>
+      <c r="D294" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>294.0</v>
+      </c>
+      <c r="B295" t="s">
+        <v>590</v>
+      </c>
+      <c r="C295" t="s">
+        <v>591</v>
+      </c>
+      <c r="D295" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="B296" t="s">
+        <v>592</v>
+      </c>
+      <c r="C296" t="s">
+        <v>593</v>
+      </c>
+      <c r="D296" t="n">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="B297" t="s">
+        <v>594</v>
+      </c>
+      <c r="C297" t="s">
+        <v>595</v>
+      </c>
+      <c r="D297" t="n">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="B298" t="s">
+        <v>596</v>
+      </c>
+      <c r="C298" t="s">
+        <v>597</v>
+      </c>
+      <c r="D298" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>298.0</v>
+      </c>
+      <c r="B299" t="s">
+        <v>598</v>
+      </c>
+      <c r="C299" t="s">
+        <v>599</v>
+      </c>
+      <c r="D299" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>299.0</v>
+      </c>
+      <c r="B300" t="s">
+        <v>600</v>
+      </c>
+      <c r="C300" t="s">
+        <v>601</v>
+      </c>
+      <c r="D300" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="B301" t="s">
+        <v>602</v>
+      </c>
+      <c r="C301" t="s">
+        <v>603</v>
+      </c>
+      <c r="D301" t="n">
+        <v>27.0</v>
       </c>
     </row>
   </sheetData>
